--- a/data/pca/factorExposure/factorExposure_2011-06-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-06-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.01632696422837168</v>
+        <v>-0.01548987267567793</v>
       </c>
       <c r="C2">
-        <v>-0.00585603280570941</v>
+        <v>0.0005883869579697467</v>
       </c>
       <c r="D2">
-        <v>0.05718099842716215</v>
+        <v>-0.005429651283341242</v>
       </c>
       <c r="E2">
-        <v>-0.02854413546311984</v>
+        <v>-0.04331039981994321</v>
       </c>
       <c r="F2">
-        <v>-0.0360670873717441</v>
+        <v>-0.0002741802662336011</v>
       </c>
       <c r="G2">
-        <v>0.01651276988825708</v>
+        <v>0.02816060998327576</v>
       </c>
       <c r="H2">
-        <v>-0.01281783435735915</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.02224616598401238</v>
+      </c>
+      <c r="I2">
+        <v>-0.005452287727382523</v>
+      </c>
+      <c r="J2">
+        <v>-0.0443101783547704</v>
+      </c>
+      <c r="K2">
+        <v>-0.04340861875257174</v>
+      </c>
+      <c r="L2">
+        <v>-0.0167358120166555</v>
+      </c>
+      <c r="M2">
+        <v>0.002968637246224349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.07939126594945663</v>
+        <v>-0.1094170009781265</v>
       </c>
       <c r="C4">
-        <v>0.05543855752066808</v>
+        <v>0.07956876356389619</v>
       </c>
       <c r="D4">
-        <v>0.02974311342870433</v>
+        <v>-0.01824136667133229</v>
       </c>
       <c r="E4">
-        <v>-0.05077184809357142</v>
+        <v>-0.05282199341012563</v>
       </c>
       <c r="F4">
-        <v>-0.01908438881570686</v>
+        <v>-0.1365980606170523</v>
       </c>
       <c r="G4">
-        <v>0.01498720374467589</v>
+        <v>-0.007695993799482059</v>
       </c>
       <c r="H4">
-        <v>-0.01079703861804238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.009515510134070157</v>
+      </c>
+      <c r="I4">
+        <v>-0.06081855380393213</v>
+      </c>
+      <c r="J4">
+        <v>0.01675130282898023</v>
+      </c>
+      <c r="K4">
+        <v>0.08201038331552564</v>
+      </c>
+      <c r="L4">
+        <v>-0.009550708356429606</v>
+      </c>
+      <c r="M4">
+        <v>0.04547782441225535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1285787183376008</v>
+        <v>-0.1305134336694503</v>
       </c>
       <c r="C6">
-        <v>0.03574954745781397</v>
+        <v>0.05003845990207927</v>
       </c>
       <c r="D6">
-        <v>0.03705106062395843</v>
+        <v>0.001170060273887582</v>
       </c>
       <c r="E6">
-        <v>-0.06108451038777163</v>
+        <v>0.001197216266671489</v>
       </c>
       <c r="F6">
-        <v>0.1063253955437469</v>
+        <v>-0.006011166024168287</v>
       </c>
       <c r="G6">
-        <v>0.003489337941525972</v>
+        <v>-0.1170073468366246</v>
       </c>
       <c r="H6">
-        <v>0.2439920225602324</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.2005266768504691</v>
+      </c>
+      <c r="I6">
+        <v>-0.3765668501211676</v>
+      </c>
+      <c r="J6">
+        <v>0.1962039660360373</v>
+      </c>
+      <c r="K6">
+        <v>-0.01337675066587604</v>
+      </c>
+      <c r="L6">
+        <v>-0.01916747627270155</v>
+      </c>
+      <c r="M6">
+        <v>-0.01302895507987154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.07156704526208095</v>
+        <v>-0.07507695434001205</v>
       </c>
       <c r="C7">
-        <v>0.05688693278746339</v>
+        <v>0.07124542148581874</v>
       </c>
       <c r="D7">
-        <v>0.05746304156048282</v>
+        <v>-0.008985015839469803</v>
       </c>
       <c r="E7">
-        <v>-0.04285327968679835</v>
+        <v>-0.05494786794289583</v>
       </c>
       <c r="F7">
-        <v>0.03598685983076061</v>
+        <v>-0.02638499320743558</v>
       </c>
       <c r="G7">
-        <v>-0.001974265602373583</v>
+        <v>-0.002161018800350468</v>
       </c>
       <c r="H7">
-        <v>-0.01887526305266899</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.01633213294907945</v>
+      </c>
+      <c r="I7">
+        <v>0.04193757631651796</v>
+      </c>
+      <c r="J7">
+        <v>-0.003880433982349735</v>
+      </c>
+      <c r="K7">
+        <v>0.09640296062080568</v>
+      </c>
+      <c r="L7">
+        <v>-0.03648669192156201</v>
+      </c>
+      <c r="M7">
+        <v>-0.01613277208297908</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.03068808601327258</v>
+        <v>-0.0396003465895976</v>
       </c>
       <c r="C8">
-        <v>0.0156707475949144</v>
+        <v>0.008874274225514721</v>
       </c>
       <c r="D8">
-        <v>0.04776729952378526</v>
+        <v>-0.01210733782425898</v>
       </c>
       <c r="E8">
-        <v>-0.05480128176646727</v>
+        <v>-0.04959511960284328</v>
       </c>
       <c r="F8">
-        <v>-0.01366849126916901</v>
+        <v>-0.1018637583849316</v>
       </c>
       <c r="G8">
-        <v>0.05767027694114966</v>
+        <v>0.001143708742693805</v>
       </c>
       <c r="H8">
-        <v>-0.02576546731419373</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.006956771161491793</v>
+      </c>
+      <c r="I8">
+        <v>-0.06928124799914916</v>
+      </c>
+      <c r="J8">
+        <v>-0.01016462318287523</v>
+      </c>
+      <c r="K8">
+        <v>0.06059175223230516</v>
+      </c>
+      <c r="L8">
+        <v>-0.03549242566430773</v>
+      </c>
+      <c r="M8">
+        <v>0.04303775335487259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.07607830385624829</v>
+        <v>-0.08450932345855006</v>
       </c>
       <c r="C9">
-        <v>0.06397265503465811</v>
+        <v>0.07466799950496737</v>
       </c>
       <c r="D9">
-        <v>0.03557854861868574</v>
+        <v>0.0008602159814011915</v>
       </c>
       <c r="E9">
-        <v>-0.04538366835331632</v>
+        <v>-0.03425770016893075</v>
       </c>
       <c r="F9">
-        <v>-0.03062100577941978</v>
+        <v>-0.1308304184366772</v>
       </c>
       <c r="G9">
-        <v>0.01540527983670468</v>
+        <v>-0.01557215624550377</v>
       </c>
       <c r="H9">
-        <v>-0.002078713684940886</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.006490608117196513</v>
+      </c>
+      <c r="I9">
+        <v>-0.02120130419811592</v>
+      </c>
+      <c r="J9">
+        <v>0.01103572420976663</v>
+      </c>
+      <c r="K9">
+        <v>0.04891396603159679</v>
+      </c>
+      <c r="L9">
+        <v>-0.03047400837264129</v>
+      </c>
+      <c r="M9">
+        <v>-0.009246755878471858</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.0585230783146654</v>
+        <v>-0.113582637603481</v>
       </c>
       <c r="C10">
-        <v>-0.1402809728509267</v>
+        <v>-0.1649299330735603</v>
       </c>
       <c r="D10">
-        <v>0.06626138662354179</v>
+        <v>-0.005196414444100741</v>
       </c>
       <c r="E10">
-        <v>-0.03667318518087858</v>
+        <v>-0.05116134888715834</v>
       </c>
       <c r="F10">
-        <v>0.04111034158848374</v>
+        <v>0.01153099551630628</v>
       </c>
       <c r="G10">
-        <v>-0.0008364483954954515</v>
+        <v>-0.01785167376888235</v>
       </c>
       <c r="H10">
-        <v>0.01435695675322672</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.001994721224122381</v>
+      </c>
+      <c r="I10">
+        <v>0.0605870542778329</v>
+      </c>
+      <c r="J10">
+        <v>0.01180925630879375</v>
+      </c>
+      <c r="K10">
+        <v>0.002991554282196627</v>
+      </c>
+      <c r="L10">
+        <v>-0.0003125903422227388</v>
+      </c>
+      <c r="M10">
+        <v>-0.1187026632639204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.07170841787093632</v>
+        <v>-0.06932540462150369</v>
       </c>
       <c r="C11">
-        <v>0.08520910096316266</v>
+        <v>0.07528894179712529</v>
       </c>
       <c r="D11">
-        <v>0.02947219415488285</v>
+        <v>0.02798528793782819</v>
       </c>
       <c r="E11">
-        <v>-0.009474862023970819</v>
+        <v>-0.01280433717493904</v>
       </c>
       <c r="F11">
-        <v>-0.0499462103208307</v>
+        <v>-0.1218565163663768</v>
       </c>
       <c r="G11">
-        <v>0.0697225942817192</v>
+        <v>-0.01430915612106431</v>
       </c>
       <c r="H11">
-        <v>-0.04744980138632134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.001440806565638107</v>
+      </c>
+      <c r="I11">
+        <v>0.08639558767200092</v>
+      </c>
+      <c r="J11">
+        <v>-0.04117304487771761</v>
+      </c>
+      <c r="K11">
+        <v>-0.0188611037353719</v>
+      </c>
+      <c r="L11">
+        <v>-0.05649742968494954</v>
+      </c>
+      <c r="M11">
+        <v>-0.1170723160630775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.07018194927051494</v>
+        <v>-0.07194810968551997</v>
       </c>
       <c r="C12">
-        <v>0.05925869395222765</v>
+        <v>0.06759352343599402</v>
       </c>
       <c r="D12">
-        <v>0.01731907105128945</v>
+        <v>0.02731715022334207</v>
       </c>
       <c r="E12">
-        <v>-0.03399212207852109</v>
+        <v>-0.002644858522569862</v>
       </c>
       <c r="F12">
-        <v>-0.0008829420920396171</v>
+        <v>-0.1284833242395635</v>
       </c>
       <c r="G12">
-        <v>0.04564206553833838</v>
+        <v>-0.007373161408943171</v>
       </c>
       <c r="H12">
-        <v>-0.04001841919475839</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.01912824874982315</v>
+      </c>
+      <c r="I12">
+        <v>0.06732051679915073</v>
+      </c>
+      <c r="J12">
+        <v>-0.05451298941909084</v>
+      </c>
+      <c r="K12">
+        <v>0.00680412260140545</v>
+      </c>
+      <c r="L12">
+        <v>-0.0721991518415307</v>
+      </c>
+      <c r="M12">
+        <v>-0.1367864182763849</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.05649977952109064</v>
+        <v>-0.04401240404801224</v>
       </c>
       <c r="C13">
-        <v>0.01379788956599414</v>
+        <v>0.03076056642825111</v>
       </c>
       <c r="D13">
-        <v>-0.0009087630856440537</v>
+        <v>-0.02167128093143742</v>
       </c>
       <c r="E13">
-        <v>-0.01757453201549974</v>
+        <v>-0.01273030930935092</v>
       </c>
       <c r="F13">
-        <v>-0.05376992998801347</v>
+        <v>-0.0384649223511506</v>
       </c>
       <c r="G13">
-        <v>-0.01169130706332908</v>
+        <v>0.01072077678152108</v>
       </c>
       <c r="H13">
-        <v>0.00933304733685579</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.006828272679914011</v>
+      </c>
+      <c r="I13">
+        <v>-0.01284874432865612</v>
+      </c>
+      <c r="J13">
+        <v>0.0045674204717535</v>
+      </c>
+      <c r="K13">
+        <v>0.04722287522460873</v>
+      </c>
+      <c r="L13">
+        <v>0.01058064474452813</v>
+      </c>
+      <c r="M13">
+        <v>0.03632981497611671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.04847822969415609</v>
+        <v>-0.04185924232941499</v>
       </c>
       <c r="C14">
-        <v>0.02301960968091339</v>
+        <v>0.03115549590522139</v>
       </c>
       <c r="D14">
-        <v>0.02269510829063448</v>
+        <v>0.01400426738823609</v>
       </c>
       <c r="E14">
-        <v>-0.0146754768371853</v>
+        <v>-0.01714963886963036</v>
       </c>
       <c r="F14">
-        <v>0.01882934623493607</v>
+        <v>-0.06552903936419449</v>
       </c>
       <c r="G14">
-        <v>0.01296247955127928</v>
+        <v>0.02277847914298834</v>
       </c>
       <c r="H14">
-        <v>0.07020325896966326</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.03457592168216993</v>
+      </c>
+      <c r="I14">
+        <v>-0.03770586698069139</v>
+      </c>
+      <c r="J14">
+        <v>0.04946536924085148</v>
+      </c>
+      <c r="K14">
+        <v>0.07152569779072593</v>
+      </c>
+      <c r="L14">
+        <v>-0.01204442719816888</v>
+      </c>
+      <c r="M14">
+        <v>0.02351964224082418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.04008317473762599</v>
+        <v>-0.02855337677266253</v>
       </c>
       <c r="C15">
-        <v>-0.00444879002453273</v>
+        <v>0.009576907938209032</v>
       </c>
       <c r="D15">
-        <v>-0.006579553570930028</v>
+        <v>-0.05657376181400067</v>
       </c>
       <c r="E15">
-        <v>-0.02489522795386369</v>
+        <v>-0.001509013161195797</v>
       </c>
       <c r="F15">
-        <v>-0.007783677734457553</v>
+        <v>-0.005410255400182287</v>
       </c>
       <c r="G15">
-        <v>-0.01347407720227459</v>
+        <v>-0.02859553342312572</v>
       </c>
       <c r="H15">
-        <v>0.008573722871351119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.0390092794849756</v>
+      </c>
+      <c r="I15">
+        <v>-0.04323120305064821</v>
+      </c>
+      <c r="J15">
+        <v>0.02736276656539703</v>
+      </c>
+      <c r="K15">
+        <v>0.06043668216598285</v>
+      </c>
+      <c r="L15">
+        <v>0.0155393048377789</v>
+      </c>
+      <c r="M15">
+        <v>-0.007907070538682066</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.06148012663734936</v>
+        <v>-0.07395163786447061</v>
       </c>
       <c r="C16">
-        <v>0.08275311726988963</v>
+        <v>0.08096637530815143</v>
       </c>
       <c r="D16">
-        <v>0.0246218084836401</v>
+        <v>0.0180491802013186</v>
       </c>
       <c r="E16">
-        <v>-0.03482753161956027</v>
+        <v>-0.01267499506267402</v>
       </c>
       <c r="F16">
-        <v>-0.04335551596556803</v>
+        <v>-0.1204617713511318</v>
       </c>
       <c r="G16">
-        <v>0.04719051834983139</v>
+        <v>0.002546984583592131</v>
       </c>
       <c r="H16">
-        <v>-0.03985775691698789</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.007003142935377998</v>
+      </c>
+      <c r="I16">
+        <v>0.07319411055509008</v>
+      </c>
+      <c r="J16">
+        <v>-0.04483923851776475</v>
+      </c>
+      <c r="K16">
+        <v>0.006933297647041901</v>
+      </c>
+      <c r="L16">
+        <v>-0.07782824452481495</v>
+      </c>
+      <c r="M16">
+        <v>-0.1139351457882962</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.04204481627965255</v>
+        <v>-0.04548597833267548</v>
       </c>
       <c r="C20">
-        <v>0.04289903236083824</v>
+        <v>0.03260926861777308</v>
       </c>
       <c r="D20">
-        <v>0.008355850137275911</v>
+        <v>-0.02573094645039579</v>
       </c>
       <c r="E20">
-        <v>-0.01934162337315102</v>
+        <v>-0.02059410232218171</v>
       </c>
       <c r="F20">
-        <v>-0.02239642379618906</v>
+        <v>-0.06680107830566509</v>
       </c>
       <c r="G20">
-        <v>0.01838459260237872</v>
+        <v>0.01166341440389804</v>
       </c>
       <c r="H20">
-        <v>-0.001832095588011968</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.009719665764086522</v>
+      </c>
+      <c r="I20">
+        <v>-4.023542922445428e-05</v>
+      </c>
+      <c r="J20">
+        <v>0.01762260819143957</v>
+      </c>
+      <c r="K20">
+        <v>0.07394257839173994</v>
+      </c>
+      <c r="L20">
+        <v>-0.04779782846812466</v>
+      </c>
+      <c r="M20">
+        <v>-0.01166642107848574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.02436767467690044</v>
+        <v>-0.03095278881475846</v>
       </c>
       <c r="C21">
-        <v>0.03398295745114831</v>
+        <v>0.02474162828076337</v>
       </c>
       <c r="D21">
-        <v>-0.0001125112562777139</v>
+        <v>-0.007222580782478496</v>
       </c>
       <c r="E21">
-        <v>-0.05978138506553883</v>
+        <v>-0.01924563859324466</v>
       </c>
       <c r="F21">
-        <v>0.06820208513807449</v>
+        <v>-0.06476035418398467</v>
       </c>
       <c r="G21">
-        <v>0.0003496445160508641</v>
+        <v>-0.09617421494789111</v>
       </c>
       <c r="H21">
-        <v>0.003815819912430529</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.02570969510647938</v>
+      </c>
+      <c r="I21">
+        <v>0.03598331063670664</v>
+      </c>
+      <c r="J21">
+        <v>0.05841709977913365</v>
+      </c>
+      <c r="K21">
+        <v>0.07484896824925995</v>
+      </c>
+      <c r="L21">
+        <v>0.007279877345874067</v>
+      </c>
+      <c r="M21">
+        <v>0.006128375408654063</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.01449551889034775</v>
+        <v>-0.04223392186386006</v>
       </c>
       <c r="C22">
-        <v>0.0358524776964451</v>
+        <v>0.02072075909483229</v>
       </c>
       <c r="D22">
-        <v>-0.1258967891896988</v>
+        <v>-0.6562663121186113</v>
       </c>
       <c r="E22">
-        <v>-0.5028370038607589</v>
+        <v>-0.04951898382184124</v>
       </c>
       <c r="F22">
-        <v>-0.1148341104203472</v>
+        <v>0.07093943507705582</v>
       </c>
       <c r="G22">
-        <v>-0.2824220483886457</v>
+        <v>0.0752895264104451</v>
       </c>
       <c r="H22">
-        <v>-0.1841619477541712</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.09179461019289552</v>
+      </c>
+      <c r="I22">
+        <v>0.09565668889430115</v>
+      </c>
+      <c r="J22">
+        <v>0.05109327164998459</v>
+      </c>
+      <c r="K22">
+        <v>-0.03304033455350137</v>
+      </c>
+      <c r="L22">
+        <v>-0.007725409798460852</v>
+      </c>
+      <c r="M22">
+        <v>-0.005272405936372526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.01320102021928134</v>
+        <v>-0.04247009288973475</v>
       </c>
       <c r="C23">
-        <v>0.03426881667103176</v>
+        <v>0.02090986588612952</v>
       </c>
       <c r="D23">
-        <v>-0.1255400031995746</v>
+        <v>-0.6577421894891968</v>
       </c>
       <c r="E23">
-        <v>-0.5015531574220842</v>
+        <v>-0.0500686558904223</v>
       </c>
       <c r="F23">
-        <v>-0.1141089303653922</v>
+        <v>0.06799049186962484</v>
       </c>
       <c r="G23">
-        <v>-0.2827510801585039</v>
+        <v>0.07651764371490903</v>
       </c>
       <c r="H23">
-        <v>-0.1816060183013737</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.09283529932411375</v>
+      </c>
+      <c r="I23">
+        <v>0.09220900929220835</v>
+      </c>
+      <c r="J23">
+        <v>0.05105668630232869</v>
+      </c>
+      <c r="K23">
+        <v>-0.0351747041330675</v>
+      </c>
+      <c r="L23">
+        <v>-0.008570448731975114</v>
+      </c>
+      <c r="M23">
+        <v>-0.004252170652704875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.07665038015433213</v>
+        <v>-0.07811521373848732</v>
       </c>
       <c r="C24">
-        <v>0.07378033597210931</v>
+        <v>0.07908161954043867</v>
       </c>
       <c r="D24">
-        <v>0.02969721537753392</v>
+        <v>0.01356944415827777</v>
       </c>
       <c r="E24">
-        <v>-0.03829099443319591</v>
+        <v>-0.01634895296885812</v>
       </c>
       <c r="F24">
-        <v>-0.03022671692120167</v>
+        <v>-0.120099673591745</v>
       </c>
       <c r="G24">
-        <v>0.04764507588105311</v>
+        <v>-0.007541083444552057</v>
       </c>
       <c r="H24">
-        <v>-0.02849527954390182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.007936041089299637</v>
+      </c>
+      <c r="I24">
+        <v>0.06669839517267781</v>
+      </c>
+      <c r="J24">
+        <v>-0.03667366683060837</v>
+      </c>
+      <c r="K24">
+        <v>-0.02172732878579474</v>
+      </c>
+      <c r="L24">
+        <v>-0.06768283351143262</v>
+      </c>
+      <c r="M24">
+        <v>-0.1102479169152238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.0668449208197877</v>
+        <v>-0.07443787252988861</v>
       </c>
       <c r="C25">
-        <v>0.04285557433269033</v>
+        <v>0.05327483293612954</v>
       </c>
       <c r="D25">
-        <v>0.02777407879982429</v>
+        <v>0.03206422645186165</v>
       </c>
       <c r="E25">
-        <v>-0.04248248242259894</v>
+        <v>-0.01458426413318573</v>
       </c>
       <c r="F25">
-        <v>-0.04284683823811656</v>
+        <v>-0.1270665891721031</v>
       </c>
       <c r="G25">
-        <v>0.06040899709186303</v>
+        <v>0.00600772996387092</v>
       </c>
       <c r="H25">
-        <v>-0.004803910878881576</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.001139926812948899</v>
+      </c>
+      <c r="I25">
+        <v>0.05942610629759846</v>
+      </c>
+      <c r="J25">
+        <v>-0.03706439601734827</v>
+      </c>
+      <c r="K25">
+        <v>-0.03731016524020066</v>
+      </c>
+      <c r="L25">
+        <v>-0.08219830857622815</v>
+      </c>
+      <c r="M25">
+        <v>-0.1153425383985967</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.04241039334853398</v>
+        <v>-0.04298587496067843</v>
       </c>
       <c r="C26">
-        <v>0.03753539369539534</v>
+        <v>0.0219310809806651</v>
       </c>
       <c r="D26">
-        <v>0.03875653485640847</v>
+        <v>-0.0130830723205831</v>
       </c>
       <c r="E26">
-        <v>-0.003345467958745101</v>
+        <v>0.0005143124163950644</v>
       </c>
       <c r="F26">
-        <v>-0.008264969806112707</v>
+        <v>-0.03736598782574645</v>
       </c>
       <c r="G26">
-        <v>-0.02496627530098357</v>
+        <v>0.005221055925470177</v>
       </c>
       <c r="H26">
-        <v>-0.0122090945291346</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.01102239873836698</v>
+      </c>
+      <c r="I26">
+        <v>0.02514870155004674</v>
+      </c>
+      <c r="J26">
+        <v>0.06229776059020123</v>
+      </c>
+      <c r="K26">
+        <v>0.1419740542803658</v>
+      </c>
+      <c r="L26">
+        <v>0.01977366799309431</v>
+      </c>
+      <c r="M26">
+        <v>-0.007249707060563633</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.1068763669732785</v>
+        <v>-0.1476156560016318</v>
       </c>
       <c r="C28">
-        <v>-0.2965507652669961</v>
+        <v>-0.2842442478382083</v>
       </c>
       <c r="D28">
-        <v>0.0456290031851975</v>
+        <v>0.009621548534169581</v>
       </c>
       <c r="E28">
-        <v>-0.001709167326937056</v>
+        <v>-0.02500729598696905</v>
       </c>
       <c r="F28">
-        <v>0.04949690787349165</v>
+        <v>-0.003215919899578153</v>
       </c>
       <c r="G28">
-        <v>-0.01075414957999268</v>
+        <v>-0.009978550510995051</v>
       </c>
       <c r="H28">
-        <v>-0.05616577277596524</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.02157943827753244</v>
+      </c>
+      <c r="I28">
+        <v>-0.0001856919776990914</v>
+      </c>
+      <c r="J28">
+        <v>-0.01228491019752123</v>
+      </c>
+      <c r="K28">
+        <v>0.04140545839433359</v>
+      </c>
+      <c r="L28">
+        <v>0.01001373845024654</v>
+      </c>
+      <c r="M28">
+        <v>0.006137681857002626</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.05251536163368766</v>
+        <v>-0.04252969327815302</v>
       </c>
       <c r="C29">
-        <v>0.01877116030720993</v>
+        <v>0.02994158020882088</v>
       </c>
       <c r="D29">
-        <v>0.01188521347042308</v>
+        <v>0.00264729102687967</v>
       </c>
       <c r="E29">
-        <v>-0.0261186736597316</v>
+        <v>-0.01987205814592364</v>
       </c>
       <c r="F29">
-        <v>-0.006672290773310665</v>
+        <v>-0.0604934036764944</v>
       </c>
       <c r="G29">
-        <v>-0.01235793088380495</v>
+        <v>0.02293606960046274</v>
       </c>
       <c r="H29">
-        <v>0.006127284175603916</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.01620198275161909</v>
+      </c>
+      <c r="I29">
+        <v>-0.01420428515297473</v>
+      </c>
+      <c r="J29">
+        <v>0.0450418450585613</v>
+      </c>
+      <c r="K29">
+        <v>0.06066509817037418</v>
+      </c>
+      <c r="L29">
+        <v>-0.01712535184679969</v>
+      </c>
+      <c r="M29">
+        <v>0.007226037134734613</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.1309668705780064</v>
+        <v>-0.1001917801024737</v>
       </c>
       <c r="C30">
-        <v>0.04685060448755966</v>
+        <v>0.06580567532731835</v>
       </c>
       <c r="D30">
-        <v>0.05241847420261501</v>
+        <v>-0.005504264992363238</v>
       </c>
       <c r="E30">
-        <v>-0.1343704515568459</v>
+        <v>-0.03649542833138363</v>
       </c>
       <c r="F30">
-        <v>0.01065256700343721</v>
+        <v>-0.1978412298338454</v>
       </c>
       <c r="G30">
-        <v>0.152852500553792</v>
+        <v>0.0156674310920362</v>
       </c>
       <c r="H30">
-        <v>-0.02511778211269041</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.2390263418046019</v>
+      </c>
+      <c r="I30">
+        <v>0.0716873520862964</v>
+      </c>
+      <c r="J30">
+        <v>0.1059396247034444</v>
+      </c>
+      <c r="K30">
+        <v>0.1489014384905311</v>
+      </c>
+      <c r="L30">
+        <v>-0.03070449197128722</v>
+      </c>
+      <c r="M30">
+        <v>0.3872592534441942</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.04949342182021982</v>
+        <v>-0.03493109889884144</v>
       </c>
       <c r="C31">
-        <v>0.02542567231518005</v>
+        <v>0.04762354096299942</v>
       </c>
       <c r="D31">
-        <v>-0.007079893208463634</v>
+        <v>-0.005131710833826502</v>
       </c>
       <c r="E31">
-        <v>0.002389844883776439</v>
+        <v>0.007461270828459716</v>
       </c>
       <c r="F31">
-        <v>-0.01233144305072007</v>
+        <v>-0.0257537573322308</v>
       </c>
       <c r="G31">
-        <v>-0.03815472265300101</v>
+        <v>0.02599738744994454</v>
       </c>
       <c r="H31">
-        <v>0.01116694464336185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.0370182739967421</v>
+      </c>
+      <c r="I31">
+        <v>-0.02094884820559895</v>
+      </c>
+      <c r="J31">
+        <v>-0.005677463971638297</v>
+      </c>
+      <c r="K31">
+        <v>0.02785902100486438</v>
+      </c>
+      <c r="L31">
+        <v>-0.02637971785057942</v>
+      </c>
+      <c r="M31">
+        <v>0.0002711740497207194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.02136986708158266</v>
+        <v>-0.04141045735699717</v>
       </c>
       <c r="C32">
-        <v>-0.01630442892094281</v>
+        <v>-0.002370503570475336</v>
       </c>
       <c r="D32">
-        <v>-0.01957494821569327</v>
+        <v>0.01300239805226295</v>
       </c>
       <c r="E32">
-        <v>-0.08593808240484789</v>
+        <v>-0.001095574135305482</v>
       </c>
       <c r="F32">
-        <v>-0.07708534253135403</v>
+        <v>-0.08706811757785762</v>
       </c>
       <c r="G32">
-        <v>0.03381776538688921</v>
+        <v>-0.02054320317511953</v>
       </c>
       <c r="H32">
-        <v>-0.03446283799246249</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.08359809437452925</v>
+      </c>
+      <c r="I32">
+        <v>-0.008255588045476405</v>
+      </c>
+      <c r="J32">
+        <v>-0.03324312762442521</v>
+      </c>
+      <c r="K32">
+        <v>0.03904481455699026</v>
+      </c>
+      <c r="L32">
+        <v>0.02132915457237136</v>
+      </c>
+      <c r="M32">
+        <v>0.134293673251268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.1015615874768806</v>
+        <v>-0.09776979733677547</v>
       </c>
       <c r="C33">
-        <v>0.04381527943585661</v>
+        <v>0.06783919609802415</v>
       </c>
       <c r="D33">
-        <v>0.003824236088394522</v>
+        <v>0.01175905423006596</v>
       </c>
       <c r="E33">
-        <v>-0.01930510704318876</v>
+        <v>0.01125735776250683</v>
       </c>
       <c r="F33">
-        <v>-0.05180829083854187</v>
+        <v>-0.07466043684750688</v>
       </c>
       <c r="G33">
-        <v>0.01717121501210006</v>
+        <v>0.02171486115931522</v>
       </c>
       <c r="H33">
-        <v>-0.002688617707530079</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.006603040323699688</v>
+      </c>
+      <c r="I33">
+        <v>-0.003590855937347885</v>
+      </c>
+      <c r="J33">
+        <v>0.06352951729515416</v>
+      </c>
+      <c r="K33">
+        <v>0.008661941244824358</v>
+      </c>
+      <c r="L33">
+        <v>0.00322972310073649</v>
+      </c>
+      <c r="M33">
+        <v>-0.01220186387023123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.05611545220926913</v>
+        <v>-0.0636329844279374</v>
       </c>
       <c r="C34">
-        <v>0.07642928176602201</v>
+        <v>0.06810543669590099</v>
       </c>
       <c r="D34">
-        <v>0.01616184361402154</v>
+        <v>0.02087045686253167</v>
       </c>
       <c r="E34">
-        <v>-0.02507966222456531</v>
+        <v>-0.0080908628815754</v>
       </c>
       <c r="F34">
-        <v>-0.02917385707583258</v>
+        <v>-0.1080819603022662</v>
       </c>
       <c r="G34">
-        <v>0.03706609510106309</v>
+        <v>-0.006228491556922139</v>
       </c>
       <c r="H34">
-        <v>-0.02688232574740905</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.01703805282518473</v>
+      </c>
+      <c r="I34">
+        <v>0.05960079890458917</v>
+      </c>
+      <c r="J34">
+        <v>-0.03615954939939729</v>
+      </c>
+      <c r="K34">
+        <v>0.006888372977666589</v>
+      </c>
+      <c r="L34">
+        <v>-0.07070244528266427</v>
+      </c>
+      <c r="M34">
+        <v>-0.1300866180719345</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.04549255577545495</v>
+        <v>-0.02596146765160886</v>
       </c>
       <c r="C35">
-        <v>0.04591595006304025</v>
+        <v>0.02889974490155964</v>
       </c>
       <c r="D35">
-        <v>0.006755892336711347</v>
+        <v>0.0008604625454413197</v>
       </c>
       <c r="E35">
-        <v>-0.02024748761993839</v>
+        <v>0.0008980587634255628</v>
       </c>
       <c r="F35">
-        <v>-0.008700219035997721</v>
+        <v>-0.03573902566389056</v>
       </c>
       <c r="G35">
-        <v>0.02185391137688121</v>
+        <v>0.006382480908537947</v>
       </c>
       <c r="H35">
-        <v>0.004394126825384104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.004362336360915108</v>
+      </c>
+      <c r="I35">
+        <v>0.03983195482781546</v>
+      </c>
+      <c r="J35">
+        <v>0.006361169462220522</v>
+      </c>
+      <c r="K35">
+        <v>0.05935040640240468</v>
+      </c>
+      <c r="L35">
+        <v>-0.03406883079162002</v>
+      </c>
+      <c r="M35">
+        <v>0.004888252410116981</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.0357365905827691</v>
+        <v>-0.02985150090563855</v>
       </c>
       <c r="C36">
-        <v>0.02297305992152298</v>
+        <v>0.02080430108917914</v>
       </c>
       <c r="D36">
-        <v>0.02573895389110288</v>
+        <v>-0.01344124227327215</v>
       </c>
       <c r="E36">
-        <v>-0.03925030712546412</v>
+        <v>-0.01180594909488954</v>
       </c>
       <c r="F36">
-        <v>-0.0307797395828549</v>
+        <v>-0.0680696585029972</v>
       </c>
       <c r="G36">
-        <v>0.01498553451635341</v>
+        <v>0.006500455246886707</v>
       </c>
       <c r="H36">
-        <v>0.02298249857309648</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.01109743368466337</v>
+      </c>
+      <c r="I36">
+        <v>-0.008722126827030632</v>
+      </c>
+      <c r="J36">
+        <v>0.03902328028397001</v>
+      </c>
+      <c r="K36">
+        <v>0.04551395254559684</v>
+      </c>
+      <c r="L36">
+        <v>-0.01569018960558866</v>
+      </c>
+      <c r="M36">
+        <v>-0.03345922533696487</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.04407572356588747</v>
+        <v>-0.02927658696813195</v>
       </c>
       <c r="C38">
-        <v>0.0344559349425038</v>
+        <v>0.04837551737232822</v>
       </c>
       <c r="D38">
-        <v>-0.01869375450549411</v>
+        <v>-0.02456331154529185</v>
       </c>
       <c r="E38">
-        <v>-0.04076518890754463</v>
+        <v>-0.002819992599204183</v>
       </c>
       <c r="F38">
-        <v>-0.04501354249260471</v>
+        <v>0.05276808708369986</v>
       </c>
       <c r="G38">
-        <v>0.004141070719922299</v>
+        <v>0.04994664335136767</v>
       </c>
       <c r="H38">
-        <v>-0.05167285249856098</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.01186501077277772</v>
+      </c>
+      <c r="I38">
+        <v>0.05169202687990041</v>
+      </c>
+      <c r="J38">
+        <v>0.07056630813230454</v>
+      </c>
+      <c r="K38">
+        <v>0.03466886339723936</v>
+      </c>
+      <c r="L38">
+        <v>0.1041893056187568</v>
+      </c>
+      <c r="M38">
+        <v>0.09477551400407855</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.09878468931877171</v>
+        <v>-0.1000644148964857</v>
       </c>
       <c r="C39">
-        <v>0.0935539123954809</v>
+        <v>0.09532443191648302</v>
       </c>
       <c r="D39">
-        <v>0.01076722007789545</v>
+        <v>0.08190617195314762</v>
       </c>
       <c r="E39">
-        <v>-0.03520023040633929</v>
+        <v>0.02365186490861262</v>
       </c>
       <c r="F39">
-        <v>-0.02509522166013825</v>
+        <v>-0.1659425317797988</v>
       </c>
       <c r="G39">
-        <v>0.08658666433911641</v>
+        <v>0.06027057519676383</v>
       </c>
       <c r="H39">
-        <v>-0.1010562617223734</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.08843170052850627</v>
+      </c>
+      <c r="I39">
+        <v>0.1518536240867728</v>
+      </c>
+      <c r="J39">
+        <v>-0.1212510929001152</v>
+      </c>
+      <c r="K39">
+        <v>0.002858769968330995</v>
+      </c>
+      <c r="L39">
+        <v>-0.1434573431663526</v>
+      </c>
+      <c r="M39">
+        <v>0.02738641233470316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.04449838959828109</v>
+        <v>-0.03377494319104085</v>
       </c>
       <c r="C40">
-        <v>0.03749055324499079</v>
+        <v>0.05931427502992394</v>
       </c>
       <c r="D40">
-        <v>-0.0564872014729635</v>
+        <v>-0.04907653405941113</v>
       </c>
       <c r="E40">
-        <v>-0.1246352741455023</v>
+        <v>-0.003030620027892597</v>
       </c>
       <c r="F40">
-        <v>-0.07495049773961324</v>
+        <v>-0.1129055299752996</v>
       </c>
       <c r="G40">
-        <v>0.08971452217428803</v>
+        <v>-0.07964226667850501</v>
       </c>
       <c r="H40">
-        <v>-0.1040937155767174</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.001502575423680424</v>
+      </c>
+      <c r="I40">
+        <v>0.08027145145033565</v>
+      </c>
+      <c r="J40">
+        <v>0.06292153455784863</v>
+      </c>
+      <c r="K40">
+        <v>0.04609179382607772</v>
+      </c>
+      <c r="L40">
+        <v>0.1172465126444155</v>
+      </c>
+      <c r="M40">
+        <v>0.07988121857748463</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.04629918837907767</v>
+        <v>-0.03912132620642877</v>
       </c>
       <c r="C41">
-        <v>0.05026226732945983</v>
+        <v>0.03760669112873956</v>
       </c>
       <c r="D41">
-        <v>0.00903501324097849</v>
+        <v>0.01414593636751236</v>
       </c>
       <c r="E41">
-        <v>-0.004030689373027375</v>
+        <v>0.002336614669911878</v>
       </c>
       <c r="F41">
-        <v>-0.03128916271995601</v>
+        <v>-0.02118809616914584</v>
       </c>
       <c r="G41">
-        <v>0.006810240916900925</v>
+        <v>0.02136889478180831</v>
       </c>
       <c r="H41">
-        <v>-0.0221017664959269</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.01476203958218763</v>
+      </c>
+      <c r="I41">
+        <v>0.0273558795020635</v>
+      </c>
+      <c r="J41">
+        <v>0.000374465365600611</v>
+      </c>
+      <c r="K41">
+        <v>0.04191826491964003</v>
+      </c>
+      <c r="L41">
+        <v>0.009825795019978446</v>
+      </c>
+      <c r="M41">
+        <v>-0.0329731262921183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.06043922550296451</v>
+        <v>-0.05265474905588413</v>
       </c>
       <c r="C43">
-        <v>0.03788396678677728</v>
+        <v>0.04492615119944747</v>
       </c>
       <c r="D43">
-        <v>0.02751368848418789</v>
+        <v>-0.0132845828324</v>
       </c>
       <c r="E43">
-        <v>-0.03536543657121515</v>
+        <v>-0.009810772338018466</v>
       </c>
       <c r="F43">
-        <v>-0.01668344642047353</v>
+        <v>-0.01446784785909127</v>
       </c>
       <c r="G43">
-        <v>-0.01462277541077333</v>
+        <v>0.05066160561827041</v>
       </c>
       <c r="H43">
-        <v>-0.02097839527362417</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.01274554644245717</v>
+      </c>
+      <c r="I43">
+        <v>0.01479040024040148</v>
+      </c>
+      <c r="J43">
+        <v>-0.01239001227280083</v>
+      </c>
+      <c r="K43">
+        <v>0.02813171330650517</v>
+      </c>
+      <c r="L43">
+        <v>-0.01274980570906951</v>
+      </c>
+      <c r="M43">
+        <v>-0.02734040517699917</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.0520419594873319</v>
+        <v>-0.08317262260871393</v>
       </c>
       <c r="C44">
-        <v>0.00839966356317774</v>
+        <v>0.05739732969477074</v>
       </c>
       <c r="D44">
-        <v>0.06457972771852827</v>
+        <v>-0.08141597965219752</v>
       </c>
       <c r="E44">
-        <v>-0.1152578789088224</v>
+        <v>-0.1060628344453091</v>
       </c>
       <c r="F44">
-        <v>-0.04073657014101084</v>
+        <v>-0.1720982920679421</v>
       </c>
       <c r="G44">
-        <v>0.1198550492729996</v>
+        <v>-0.01408594917092791</v>
       </c>
       <c r="H44">
-        <v>-0.01495244883692592</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.01546224166169184</v>
+      </c>
+      <c r="I44">
+        <v>0.09577915353915917</v>
+      </c>
+      <c r="J44">
+        <v>0.009179384249640675</v>
+      </c>
+      <c r="K44">
+        <v>0.0163028090211685</v>
+      </c>
+      <c r="L44">
+        <v>0.01711403877605225</v>
+      </c>
+      <c r="M44">
+        <v>0.1432984811691122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.02145292300739879</v>
+        <v>-0.03312798805407458</v>
       </c>
       <c r="C46">
-        <v>0.04589299786284506</v>
+        <v>0.03925429333642059</v>
       </c>
       <c r="D46">
-        <v>0.01289691311711002</v>
+        <v>-0.04055280965832059</v>
       </c>
       <c r="E46">
-        <v>-0.03904151640935105</v>
+        <v>-0.04065589341258397</v>
       </c>
       <c r="F46">
-        <v>-0.0104617114631042</v>
+        <v>-0.0378938536770913</v>
       </c>
       <c r="G46">
-        <v>-0.006256568861211748</v>
+        <v>-0.01133598974217801</v>
       </c>
       <c r="H46">
-        <v>-0.01161077946049949</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.05326127719118164</v>
+      </c>
+      <c r="I46">
+        <v>-0.02049676285563127</v>
+      </c>
+      <c r="J46">
+        <v>0.06185533906345667</v>
+      </c>
+      <c r="K46">
+        <v>0.0899272182662931</v>
+      </c>
+      <c r="L46">
+        <v>-0.01978329279364902</v>
+      </c>
+      <c r="M46">
+        <v>-0.01168533618347092</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.02490118186120048</v>
+        <v>-0.04471744631512563</v>
       </c>
       <c r="C47">
-        <v>0.002954713775754171</v>
+        <v>0.02881742502427312</v>
       </c>
       <c r="D47">
-        <v>-0.01171541609666046</v>
+        <v>-0.01784131754438808</v>
       </c>
       <c r="E47">
-        <v>-0.06827119278090051</v>
+        <v>-0.01036460542734634</v>
       </c>
       <c r="F47">
-        <v>-0.02237017770362088</v>
+        <v>-0.04204021843516321</v>
       </c>
       <c r="G47">
-        <v>0.002975179557577954</v>
+        <v>0.01786876635842283</v>
       </c>
       <c r="H47">
-        <v>0.03520622311210975</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.01042755133661192</v>
+      </c>
+      <c r="I47">
+        <v>-0.005464135968823979</v>
+      </c>
+      <c r="J47">
+        <v>0.04684385752089452</v>
+      </c>
+      <c r="K47">
+        <v>0.02544837126142524</v>
+      </c>
+      <c r="L47">
+        <v>-0.00879650181276328</v>
+      </c>
+      <c r="M47">
+        <v>-0.03714227666403516</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.03401738635317589</v>
+        <v>-0.04179084408917166</v>
       </c>
       <c r="C48">
-        <v>0.02306907146410075</v>
+        <v>0.02098285706663538</v>
       </c>
       <c r="D48">
-        <v>-0.000278105869511367</v>
+        <v>-0.01145984666995817</v>
       </c>
       <c r="E48">
-        <v>-0.05433455334973904</v>
+        <v>-0.0006915811304414414</v>
       </c>
       <c r="F48">
-        <v>-0.02510846968355212</v>
+        <v>-0.07394541314497199</v>
       </c>
       <c r="G48">
-        <v>-0.0236730078613577</v>
+        <v>-0.03454498979694824</v>
       </c>
       <c r="H48">
-        <v>0.0005046712716327107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.004387385199991019</v>
+      </c>
+      <c r="I48">
+        <v>-0.008466213524765303</v>
+      </c>
+      <c r="J48">
+        <v>0.01296167591260791</v>
+      </c>
+      <c r="K48">
+        <v>0.06093783486899825</v>
+      </c>
+      <c r="L48">
+        <v>-0.04588728519658637</v>
+      </c>
+      <c r="M48">
+        <v>-0.02203727839974174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.2126036859694648</v>
+        <v>-0.2256300269675482</v>
       </c>
       <c r="C49">
-        <v>0.1270542878043104</v>
+        <v>0.07685752996553326</v>
       </c>
       <c r="D49">
-        <v>0.07104583044366863</v>
+        <v>0.05565110637807488</v>
       </c>
       <c r="E49">
-        <v>0.04194118392490175</v>
+        <v>-0.02850980020057289</v>
       </c>
       <c r="F49">
-        <v>0.1821129905288633</v>
+        <v>0.2439591512511211</v>
       </c>
       <c r="G49">
-        <v>0.03186225978856701</v>
+        <v>-0.1434852368699356</v>
       </c>
       <c r="H49">
-        <v>-0.05287835917044812</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.0491035787314184</v>
+      </c>
+      <c r="I49">
+        <v>0.1327240213003655</v>
+      </c>
+      <c r="J49">
+        <v>-0.008821878685044507</v>
+      </c>
+      <c r="K49">
+        <v>-0.1736096866164303</v>
+      </c>
+      <c r="L49">
+        <v>-0.06250345498863233</v>
+      </c>
+      <c r="M49">
+        <v>-0.1263959086505763</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.05699255253292768</v>
+        <v>-0.04494657521711567</v>
       </c>
       <c r="C50">
-        <v>0.02690930348777572</v>
+        <v>0.04103844675041778</v>
       </c>
       <c r="D50">
-        <v>-0.001389207812424258</v>
+        <v>-0.002309635345796364</v>
       </c>
       <c r="E50">
-        <v>-0.02667449991778343</v>
+        <v>0.009930654433154414</v>
       </c>
       <c r="F50">
-        <v>-0.04868462195690523</v>
+        <v>-0.05066033797489889</v>
       </c>
       <c r="G50">
-        <v>-0.0415914090528767</v>
+        <v>0.03864823730485058</v>
       </c>
       <c r="H50">
-        <v>0.04048913472701988</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.01527678119265053</v>
+      </c>
+      <c r="I50">
+        <v>-0.02991163369350976</v>
+      </c>
+      <c r="J50">
+        <v>0.04293222544317675</v>
+      </c>
+      <c r="K50">
+        <v>0.03649507253366957</v>
+      </c>
+      <c r="L50">
+        <v>-0.009366315117709181</v>
+      </c>
+      <c r="M50">
+        <v>0.02469250643722865</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.02921481789966384</v>
+        <v>-0.0281790142952122</v>
       </c>
       <c r="C51">
-        <v>0.0148267784245964</v>
+        <v>0.0064533788954176</v>
       </c>
       <c r="D51">
-        <v>-0.004619961917123532</v>
+        <v>0.001545908587529579</v>
       </c>
       <c r="E51">
-        <v>-0.001932097407593935</v>
+        <v>-0.01576760072831481</v>
       </c>
       <c r="F51">
-        <v>-0.002872804918628074</v>
+        <v>0.01941574277237568</v>
       </c>
       <c r="G51">
-        <v>0.01605022490569008</v>
+        <v>0.005286911671570576</v>
       </c>
       <c r="H51">
-        <v>-0.02454767415126788</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.01268666023935855</v>
+      </c>
+      <c r="I51">
+        <v>0.02313020267678867</v>
+      </c>
+      <c r="J51">
+        <v>-0.04588534788468798</v>
+      </c>
+      <c r="K51">
+        <v>-0.06779797414281154</v>
+      </c>
+      <c r="L51">
+        <v>-0.03647662993048866</v>
+      </c>
+      <c r="M51">
+        <v>0.01547051631901466</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.02494214614603974</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.006100259006545224</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.01558090096370824</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.007869523325846449</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.01326068082599314</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.03173885701770641</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.006895293435213451</v>
+      </c>
+      <c r="I52">
+        <v>-0.002481372519927461</v>
+      </c>
+      <c r="J52">
+        <v>-0.007967649373291072</v>
+      </c>
+      <c r="K52">
+        <v>0.005021586701762042</v>
+      </c>
+      <c r="L52">
+        <v>-0.008831464934220998</v>
+      </c>
+      <c r="M52">
+        <v>0.03352916166923552</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.1700700719413908</v>
+        <v>-0.1559070645210373</v>
       </c>
       <c r="C53">
-        <v>0.007683736402506644</v>
+        <v>0.04534214671361352</v>
       </c>
       <c r="D53">
-        <v>0.02539955965815237</v>
+        <v>0.01688645979653558</v>
       </c>
       <c r="E53">
-        <v>0.08332595644840989</v>
+        <v>-0.0001851422510183712</v>
       </c>
       <c r="F53">
-        <v>-0.2450675971818589</v>
+        <v>0.05644854102070058</v>
       </c>
       <c r="G53">
-        <v>-0.02414146773573188</v>
+        <v>0.2426152780328723</v>
       </c>
       <c r="H53">
-        <v>0.07691127563148592</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.1193227344097373</v>
+      </c>
+      <c r="I53">
+        <v>-0.0607626446790879</v>
+      </c>
+      <c r="J53">
+        <v>0.06995615822748665</v>
+      </c>
+      <c r="K53">
+        <v>-0.05531244544695666</v>
+      </c>
+      <c r="L53">
+        <v>0.04316896854108946</v>
+      </c>
+      <c r="M53">
+        <v>0.1000502515134164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.04795357322937412</v>
+        <v>-0.05732878356536888</v>
       </c>
       <c r="C54">
-        <v>0.03518941689471305</v>
+        <v>0.03993744789868307</v>
       </c>
       <c r="D54">
-        <v>0.02751747242826908</v>
+        <v>-0.01847000897815141</v>
       </c>
       <c r="E54">
-        <v>-0.05600035691766066</v>
+        <v>-0.02588136262014881</v>
       </c>
       <c r="F54">
-        <v>-0.01968594759480263</v>
+        <v>-0.1187234873545156</v>
       </c>
       <c r="G54">
-        <v>-0.002099556176647972</v>
+        <v>-0.0288936959082344</v>
       </c>
       <c r="H54">
-        <v>0.0004962913508864923</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.03321618223975217</v>
+      </c>
+      <c r="I54">
+        <v>-0.06505666234103633</v>
+      </c>
+      <c r="J54">
+        <v>0.02776294970981534</v>
+      </c>
+      <c r="K54">
+        <v>0.1277201140477242</v>
+      </c>
+      <c r="L54">
+        <v>0.009718380808415019</v>
+      </c>
+      <c r="M54">
+        <v>-0.02976608116890371</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.09102354420607071</v>
+        <v>-0.08673908790191646</v>
       </c>
       <c r="C55">
-        <v>0.004473099584460388</v>
+        <v>0.03981592103406256</v>
       </c>
       <c r="D55">
-        <v>0.02107830374091782</v>
+        <v>0.03244426455780389</v>
       </c>
       <c r="E55">
-        <v>0.019899637069193</v>
+        <v>-0.00891207621292253</v>
       </c>
       <c r="F55">
-        <v>-0.2082924439713548</v>
+        <v>-0.01620331969227903</v>
       </c>
       <c r="G55">
-        <v>-0.03465979861642444</v>
+        <v>0.1567233277484474</v>
       </c>
       <c r="H55">
-        <v>0.08791209268035084</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.08824211470163848</v>
+      </c>
+      <c r="I55">
+        <v>-0.04558103414657547</v>
+      </c>
+      <c r="J55">
+        <v>0.04930786708571906</v>
+      </c>
+      <c r="K55">
+        <v>-0.03511574168104342</v>
+      </c>
+      <c r="L55">
+        <v>0.01728304725693364</v>
+      </c>
+      <c r="M55">
+        <v>0.01706010493299822</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.1624807818875151</v>
+        <v>-0.1496446302061553</v>
       </c>
       <c r="C56">
-        <v>0.01113625597191571</v>
+        <v>0.06985768058932992</v>
       </c>
       <c r="D56">
-        <v>0.04136655698205178</v>
+        <v>0.03596851364357765</v>
       </c>
       <c r="E56">
-        <v>0.08518933628595782</v>
+        <v>-0.01779243962990756</v>
       </c>
       <c r="F56">
-        <v>-0.2241751517694851</v>
+        <v>0.03051988511921953</v>
       </c>
       <c r="G56">
-        <v>-0.07453233698809272</v>
+        <v>0.2307885047995416</v>
       </c>
       <c r="H56">
-        <v>0.07486664292712847</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.1086300771726498</v>
+      </c>
+      <c r="I56">
+        <v>-0.0408360426653434</v>
+      </c>
+      <c r="J56">
+        <v>0.05393198847051738</v>
+      </c>
+      <c r="K56">
+        <v>-0.04571258572625968</v>
+      </c>
+      <c r="L56">
+        <v>0.07350833550605458</v>
+      </c>
+      <c r="M56">
+        <v>0.05095133806810245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1102 +3040,1747 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.02387606094855614</v>
+        <v>-0.03641450881094902</v>
       </c>
       <c r="C58">
-        <v>0.04561304156251864</v>
+        <v>0.03007322119584334</v>
       </c>
       <c r="D58">
-        <v>-0.05039754318716569</v>
+        <v>-0.08317719870165444</v>
       </c>
       <c r="E58">
-        <v>-0.3839157777308538</v>
+        <v>-0.008586790660730943</v>
       </c>
       <c r="F58">
-        <v>0.3005521039694509</v>
+        <v>-0.06359381368429513</v>
       </c>
       <c r="G58">
-        <v>-0.04982443197788968</v>
+        <v>-0.05727281864200581</v>
       </c>
       <c r="H58">
-        <v>0.3687765061004604</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.1192364169942396</v>
+      </c>
+      <c r="I58">
+        <v>-0.0009743649539507126</v>
+      </c>
+      <c r="J58">
+        <v>-0.1274773129771781</v>
+      </c>
+      <c r="K58">
+        <v>0.07617859458067829</v>
+      </c>
+      <c r="L58">
+        <v>-0.4682199993362253</v>
+      </c>
+      <c r="M58">
+        <v>0.04733646724648816</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.2315954673966376</v>
+        <v>-0.2268266442947769</v>
       </c>
       <c r="C59">
-        <v>-0.4047462824034461</v>
+        <v>-0.2948455196533346</v>
       </c>
       <c r="D59">
-        <v>0.04736021585065135</v>
+        <v>0.04499037319106262</v>
       </c>
       <c r="E59">
-        <v>-0.008731427642116533</v>
+        <v>-0.01182829798918525</v>
       </c>
       <c r="F59">
-        <v>-0.05263402487348616</v>
+        <v>-0.02301962260898818</v>
       </c>
       <c r="G59">
-        <v>0.03429218786590896</v>
+        <v>0.05965599311898787</v>
       </c>
       <c r="H59">
-        <v>-0.06086691833951755</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.06288199723384545</v>
+      </c>
+      <c r="I59">
+        <v>0.000724210254276821</v>
+      </c>
+      <c r="J59">
+        <v>-0.1133993368543422</v>
+      </c>
+      <c r="K59">
+        <v>-0.06015813932559128</v>
+      </c>
+      <c r="L59">
+        <v>0.0853973976730061</v>
+      </c>
+      <c r="M59">
+        <v>0.04393660720981167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.2541653542571323</v>
+        <v>-0.2378604585984631</v>
       </c>
       <c r="C60">
-        <v>0.07680849699847883</v>
+        <v>0.1168626911920626</v>
       </c>
       <c r="D60">
-        <v>0.08119996706466594</v>
+        <v>0.0647724862177851</v>
       </c>
       <c r="E60">
-        <v>-0.004560506544346758</v>
+        <v>-0.04609989169396957</v>
       </c>
       <c r="F60">
-        <v>0.05194487600873329</v>
+        <v>0.1159411054773153</v>
       </c>
       <c r="G60">
-        <v>-0.01568112930055608</v>
+        <v>-0.04623289191368684</v>
       </c>
       <c r="H60">
-        <v>0.0565768077617189</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.123530208631278</v>
+      </c>
+      <c r="I60">
+        <v>-0.08334527491850144</v>
+      </c>
+      <c r="J60">
+        <v>0.06514509737891439</v>
+      </c>
+      <c r="K60">
+        <v>-0.2409119683624894</v>
+      </c>
+      <c r="L60">
+        <v>0.02228723025617923</v>
+      </c>
+      <c r="M60">
+        <v>0.02947189398690228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.08202126255020808</v>
+        <v>-0.09495307426217242</v>
       </c>
       <c r="C61">
-        <v>0.05359078801200058</v>
+        <v>0.06975894822698109</v>
       </c>
       <c r="D61">
-        <v>0.01132500148805713</v>
+        <v>0.04359511989125637</v>
       </c>
       <c r="E61">
-        <v>-0.0002028122831101028</v>
+        <v>-0.01232837825171781</v>
       </c>
       <c r="F61">
-        <v>-0.02273371802168341</v>
+        <v>-0.1359819072692367</v>
       </c>
       <c r="G61">
-        <v>0.01929335331967588</v>
+        <v>0.06151787322978007</v>
       </c>
       <c r="H61">
-        <v>-0.06159097899905999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.01414180573192416</v>
+      </c>
+      <c r="I61">
+        <v>0.08869778116758559</v>
+      </c>
+      <c r="J61">
+        <v>-0.04891854639456666</v>
+      </c>
+      <c r="K61">
+        <v>0.04016528860114452</v>
+      </c>
+      <c r="L61">
+        <v>-0.06112407715486262</v>
+      </c>
+      <c r="M61">
+        <v>-0.01342968715116798</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.158861528675947</v>
+        <v>-0.1409642849356226</v>
       </c>
       <c r="C62">
-        <v>0.04674942694368582</v>
+        <v>0.06980212252635976</v>
       </c>
       <c r="D62">
-        <v>0.0013494727628378</v>
+        <v>0.0333823878723306</v>
       </c>
       <c r="E62">
-        <v>0.1452281303408278</v>
+        <v>0.03053081297725227</v>
       </c>
       <c r="F62">
-        <v>-0.2178559483009046</v>
+        <v>0.03836885942352059</v>
       </c>
       <c r="G62">
-        <v>-0.005082068677783691</v>
+        <v>0.1752936793569415</v>
       </c>
       <c r="H62">
-        <v>0.02277074174432852</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.1340082757315608</v>
+      </c>
+      <c r="I62">
+        <v>-0.03983634657946961</v>
+      </c>
+      <c r="J62">
+        <v>0.1068259009592568</v>
+      </c>
+      <c r="K62">
+        <v>-0.01001073796766567</v>
+      </c>
+      <c r="L62">
+        <v>0.08721724388077455</v>
+      </c>
+      <c r="M62">
+        <v>-0.0113137408709357</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.03834734027236355</v>
+        <v>-0.04598457449688383</v>
       </c>
       <c r="C63">
-        <v>0.04095093060810702</v>
+        <v>0.03222323109237453</v>
       </c>
       <c r="D63">
-        <v>0.006328742335684001</v>
+        <v>0.005520650350854804</v>
       </c>
       <c r="E63">
-        <v>1.819326973905928e-07</v>
+        <v>0.01129625040539642</v>
       </c>
       <c r="F63">
-        <v>-0.02029844808636045</v>
+        <v>-0.07226946512988398</v>
       </c>
       <c r="G63">
-        <v>0.0118549464846519</v>
+        <v>0.0004984728789801833</v>
       </c>
       <c r="H63">
-        <v>0.04846309840635266</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.002616818584922245</v>
+      </c>
+      <c r="I63">
+        <v>-0.002628939540195882</v>
+      </c>
+      <c r="J63">
+        <v>0.02334118763641612</v>
+      </c>
+      <c r="K63">
+        <v>0.04012414367098591</v>
+      </c>
+      <c r="L63">
+        <v>-0.04033116073972993</v>
+      </c>
+      <c r="M63">
+        <v>-0.02404500033536153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.1034177139416082</v>
+        <v>-0.09743865474850635</v>
       </c>
       <c r="C64">
-        <v>0.0277652164637986</v>
+        <v>0.04605543826883304</v>
       </c>
       <c r="D64">
-        <v>0.03491810896780608</v>
+        <v>-0.008092783008559094</v>
       </c>
       <c r="E64">
-        <v>-0.04349104406994948</v>
+        <v>-0.04041860176139282</v>
       </c>
       <c r="F64">
-        <v>0.007767687953534193</v>
+        <v>-0.06762665244631685</v>
       </c>
       <c r="G64">
-        <v>0.04475541710942614</v>
+        <v>-0.01025032563780368</v>
       </c>
       <c r="H64">
-        <v>-0.05320028018833516</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.07850537217867627</v>
+      </c>
+      <c r="I64">
+        <v>0.02948145339074736</v>
+      </c>
+      <c r="J64">
+        <v>0.005411786535405451</v>
+      </c>
+      <c r="K64">
+        <v>0.01885057363293633</v>
+      </c>
+      <c r="L64">
+        <v>-0.004460468101106501</v>
+      </c>
+      <c r="M64">
+        <v>0.01664878066720776</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.1264677606840952</v>
+        <v>-0.1221760027628025</v>
       </c>
       <c r="C65">
-        <v>0.05411068290950479</v>
+        <v>0.04288355860068226</v>
       </c>
       <c r="D65">
-        <v>0.02457029594909904</v>
+        <v>0.01315222024667466</v>
       </c>
       <c r="E65">
-        <v>-0.09138479178017864</v>
+        <v>0.02992075002599777</v>
       </c>
       <c r="F65">
-        <v>0.1513909931876008</v>
+        <v>-0.0001857419222611045</v>
       </c>
       <c r="G65">
-        <v>0.003610874797322542</v>
+        <v>-0.1448519875176632</v>
       </c>
       <c r="H65">
-        <v>0.5972244701160652</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.2915958337412248</v>
+      </c>
+      <c r="I65">
+        <v>-0.5079746499521864</v>
+      </c>
+      <c r="J65">
+        <v>0.3582335520738646</v>
+      </c>
+      <c r="K65">
+        <v>-0.05835255591098794</v>
+      </c>
+      <c r="L65">
+        <v>-0.09735800568429993</v>
+      </c>
+      <c r="M65">
+        <v>0.07893458182776877</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.1574786687401222</v>
+        <v>-0.1261850205433114</v>
       </c>
       <c r="C66">
-        <v>0.1282411436544608</v>
+        <v>0.1306646523607574</v>
       </c>
       <c r="D66">
-        <v>0.01597285358574528</v>
+        <v>0.09660709945543401</v>
       </c>
       <c r="E66">
-        <v>0.006249570052613297</v>
+        <v>0.04016086136321251</v>
       </c>
       <c r="F66">
-        <v>-0.0510968088479175</v>
+        <v>-0.1682143281209096</v>
       </c>
       <c r="G66">
-        <v>0.1714628310336712</v>
+        <v>0.06331830450467486</v>
       </c>
       <c r="H66">
-        <v>-0.2161604407356795</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.07621643732416791</v>
+      </c>
+      <c r="I66">
+        <v>0.2114739807308499</v>
+      </c>
+      <c r="J66">
+        <v>-0.1208639159276371</v>
+      </c>
+      <c r="K66">
+        <v>-0.03298813464731593</v>
+      </c>
+      <c r="L66">
+        <v>-0.08810591964230091</v>
+      </c>
+      <c r="M66">
+        <v>0.09040834132682901</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.08161610841211119</v>
+        <v>-0.07842709376932427</v>
       </c>
       <c r="C67">
-        <v>0.04958501403435005</v>
+        <v>0.06039187032045865</v>
       </c>
       <c r="D67">
-        <v>0.007090211209109563</v>
+        <v>-0.02041761742915553</v>
       </c>
       <c r="E67">
-        <v>-0.009422306143334324</v>
+        <v>-0.01927018185299214</v>
       </c>
       <c r="F67">
-        <v>-0.02556687750982814</v>
+        <v>0.05933924597410029</v>
       </c>
       <c r="G67">
-        <v>0.001107534667127777</v>
+        <v>0.08164421910411399</v>
       </c>
       <c r="H67">
-        <v>-0.06837106509518873</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.03612430859557339</v>
+      </c>
+      <c r="I67">
+        <v>0.07580480337419049</v>
+      </c>
+      <c r="J67">
+        <v>0.02160576661890852</v>
+      </c>
+      <c r="K67">
+        <v>-0.01653870672158067</v>
+      </c>
+      <c r="L67">
+        <v>0.1441594988238621</v>
+      </c>
+      <c r="M67">
+        <v>0.06726920523255733</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.09455664250495706</v>
+        <v>-0.1250848378769545</v>
       </c>
       <c r="C68">
-        <v>-0.2836850479931313</v>
+        <v>-0.2733919724825742</v>
       </c>
       <c r="D68">
-        <v>0.004859360519582297</v>
+        <v>0.008570284934438531</v>
       </c>
       <c r="E68">
-        <v>-0.0194166828403533</v>
+        <v>-0.003576506621392468</v>
       </c>
       <c r="F68">
-        <v>-0.02525445722816083</v>
+        <v>-0.03589232254446766</v>
       </c>
       <c r="G68">
-        <v>-0.03603725968535182</v>
+        <v>0.02749264047976125</v>
       </c>
       <c r="H68">
-        <v>0.02640384962452831</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.01677596919024641</v>
+      </c>
+      <c r="I68">
+        <v>-0.04288742407481456</v>
+      </c>
+      <c r="J68">
+        <v>0.03547861091088177</v>
+      </c>
+      <c r="K68">
+        <v>0.01671075160732318</v>
+      </c>
+      <c r="L68">
+        <v>-0.03164378071330132</v>
+      </c>
+      <c r="M68">
+        <v>0.02308882138052864</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.03435755882836965</v>
+        <v>-0.04240495060647328</v>
       </c>
       <c r="C69">
-        <v>0.02528917632880429</v>
+        <v>0.021940824827275</v>
       </c>
       <c r="D69">
-        <v>0.0061011393811702</v>
+        <v>-0.006876503774279888</v>
       </c>
       <c r="E69">
-        <v>-0.01297365633939843</v>
+        <v>-0.001068281251961248</v>
       </c>
       <c r="F69">
-        <v>-0.02659854845070598</v>
+        <v>-0.01944807052122735</v>
       </c>
       <c r="G69">
-        <v>0.03573647565780654</v>
+        <v>0.0221383543293661</v>
       </c>
       <c r="H69">
-        <v>0.001881246317233678</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.007629163764235384</v>
+      </c>
+      <c r="I69">
+        <v>0.01697510301972675</v>
+      </c>
+      <c r="J69">
+        <v>0.01330954851772111</v>
+      </c>
+      <c r="K69">
+        <v>0.01217310471556902</v>
+      </c>
+      <c r="L69">
+        <v>0.005042959174654558</v>
+      </c>
+      <c r="M69">
+        <v>-0.07605256987972817</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.05386306467012526</v>
+        <v>-0.05191972328938323</v>
       </c>
       <c r="C70">
-        <v>-0.0033223274143884</v>
+        <v>0.03804495519306762</v>
       </c>
       <c r="D70">
-        <v>0.040673125964831</v>
+        <v>0.01957205896937877</v>
       </c>
       <c r="E70">
-        <v>-0.002426178998371169</v>
+        <v>-0.02268699484837177</v>
       </c>
       <c r="F70">
-        <v>0.09174690563271101</v>
+        <v>0.008475637838349873</v>
       </c>
       <c r="G70">
-        <v>-0.04761303016392741</v>
+        <v>-0.06981535435373731</v>
       </c>
       <c r="H70">
-        <v>-0.0522996933615282</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.01082170756160501</v>
+      </c>
+      <c r="I70">
+        <v>-0.03458423876484674</v>
+      </c>
+      <c r="J70">
+        <v>0.07501710268881433</v>
+      </c>
+      <c r="K70">
+        <v>0.258975057357299</v>
+      </c>
+      <c r="L70">
+        <v>0.1448020320837004</v>
+      </c>
+      <c r="M70">
+        <v>-0.08039213230096799</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.1014035087651315</v>
+        <v>-0.1399243322512038</v>
       </c>
       <c r="C71">
-        <v>-0.278392130997307</v>
+        <v>-0.2809081501504403</v>
       </c>
       <c r="D71">
-        <v>0.03950623989635937</v>
+        <v>0.01299694346420377</v>
       </c>
       <c r="E71">
-        <v>-0.012229771137522</v>
+        <v>-0.0204206812382495</v>
       </c>
       <c r="F71">
-        <v>0.003719500411781948</v>
+        <v>-0.03586325621543004</v>
       </c>
       <c r="G71">
-        <v>-0.01113289210819813</v>
+        <v>0.02590831453872345</v>
       </c>
       <c r="H71">
-        <v>-0.001616538402371263</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.02631550538847185</v>
+      </c>
+      <c r="I71">
+        <v>0.0008059365660238316</v>
+      </c>
+      <c r="J71">
+        <v>0.02114519847852175</v>
+      </c>
+      <c r="K71">
+        <v>0.004065721865195974</v>
+      </c>
+      <c r="L71">
+        <v>-0.02258069844062225</v>
+      </c>
+      <c r="M71">
+        <v>0.00523187082777291</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.1811236637849848</v>
+        <v>-0.1439797668237188</v>
       </c>
       <c r="C72">
-        <v>0.02440419326454735</v>
+        <v>0.02741693471022802</v>
       </c>
       <c r="D72">
-        <v>-0.2485278942699796</v>
+        <v>-0.004321679608033547</v>
       </c>
       <c r="E72">
-        <v>0.0596254286102568</v>
+        <v>0.1851020179697077</v>
       </c>
       <c r="F72">
-        <v>-0.05364231208003985</v>
+        <v>-0.03308835023194231</v>
       </c>
       <c r="G72">
-        <v>0.06985351595997735</v>
+        <v>0.036523215443181</v>
       </c>
       <c r="H72">
-        <v>0.07675885259481731</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.0283988920315102</v>
+      </c>
+      <c r="I72">
+        <v>-0.09209239634609009</v>
+      </c>
+      <c r="J72">
+        <v>0.0880159183925547</v>
+      </c>
+      <c r="K72">
+        <v>-0.1188746975660971</v>
+      </c>
+      <c r="L72">
+        <v>0.06015960999090578</v>
+      </c>
+      <c r="M72">
+        <v>0.02617243545173093</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.2819371085295897</v>
+        <v>-0.2398357606542405</v>
       </c>
       <c r="C73">
-        <v>0.1857894722692408</v>
+        <v>0.1525767067781759</v>
       </c>
       <c r="D73">
-        <v>0.1005127417602911</v>
+        <v>0.1411594150440262</v>
       </c>
       <c r="E73">
-        <v>0.0228481363492162</v>
+        <v>-0.08850892817355047</v>
       </c>
       <c r="F73">
-        <v>0.2109984128432074</v>
+        <v>0.4427656490690813</v>
       </c>
       <c r="G73">
-        <v>0.02095748102566646</v>
+        <v>-0.128527483834674</v>
       </c>
       <c r="H73">
-        <v>0.1386587848599091</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.2414962014815948</v>
+      </c>
+      <c r="I73">
+        <v>0.2688254264540499</v>
+      </c>
+      <c r="J73">
+        <v>-0.06350232256966826</v>
+      </c>
+      <c r="K73">
+        <v>-0.2944413895222752</v>
+      </c>
+      <c r="L73">
+        <v>-0.1606682129686161</v>
+      </c>
+      <c r="M73">
+        <v>0.1589799938328233</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.09216420202562972</v>
+        <v>-0.09300569455243815</v>
       </c>
       <c r="C74">
-        <v>0.0403137288344274</v>
+        <v>0.07061099230715155</v>
       </c>
       <c r="D74">
-        <v>0.01002023171530356</v>
+        <v>0.01150384958411688</v>
       </c>
       <c r="E74">
-        <v>0.02228568523629938</v>
+        <v>0.007440600347540579</v>
       </c>
       <c r="F74">
-        <v>-0.1240686161057904</v>
+        <v>0.03044025645859651</v>
       </c>
       <c r="G74">
-        <v>-0.04148607206739336</v>
+        <v>0.1498210144238732</v>
       </c>
       <c r="H74">
-        <v>0.07828300316071032</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.02787888826406315</v>
+      </c>
+      <c r="I74">
+        <v>0.01871968439281545</v>
+      </c>
+      <c r="J74">
+        <v>0.05230810676563825</v>
+      </c>
+      <c r="K74">
+        <v>-0.0216512262757901</v>
+      </c>
+      <c r="L74">
+        <v>-0.004293808074141101</v>
+      </c>
+      <c r="M74">
+        <v>0.01709037917192406</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.09079958956934189</v>
+        <v>-0.09269637304766717</v>
       </c>
       <c r="C75">
-        <v>0.01861777200516168</v>
+        <v>0.05169879115245529</v>
       </c>
       <c r="D75">
-        <v>0.01088575482864964</v>
+        <v>0.008375167522162948</v>
       </c>
       <c r="E75">
-        <v>0.04311300668930612</v>
+        <v>0.009633702310746116</v>
       </c>
       <c r="F75">
-        <v>-0.1077652541747399</v>
+        <v>0.01973870905748776</v>
       </c>
       <c r="G75">
-        <v>-0.05524796957014987</v>
+        <v>0.1069038273970462</v>
       </c>
       <c r="H75">
-        <v>0.02809917284846132</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.07205451970303953</v>
+      </c>
+      <c r="I75">
+        <v>-0.04037938056017994</v>
+      </c>
+      <c r="J75">
+        <v>0.008891716662741503</v>
+      </c>
+      <c r="K75">
+        <v>-0.01795387942938321</v>
+      </c>
+      <c r="L75">
+        <v>0.02653975330264384</v>
+      </c>
+      <c r="M75">
+        <v>-0.06888791652445793</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.1342459408613587</v>
+        <v>-0.08557654407264897</v>
       </c>
       <c r="C76">
-        <v>0.02519175973839778</v>
+        <v>0.06286958206885433</v>
       </c>
       <c r="D76">
-        <v>0.01707288430545528</v>
+        <v>0.006215771083886901</v>
       </c>
       <c r="E76">
-        <v>0.02469049025889567</v>
+        <v>-0.009581462403986264</v>
       </c>
       <c r="F76">
-        <v>-0.230363860712312</v>
+        <v>0.04951742246287176</v>
       </c>
       <c r="G76">
-        <v>-0.06976808510157752</v>
+        <v>0.1930909477752665</v>
       </c>
       <c r="H76">
-        <v>0.09541233957278954</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.1105450264898712</v>
+      </c>
+      <c r="I76">
+        <v>-0.04763670614020002</v>
+      </c>
+      <c r="J76">
+        <v>0.02788970166725103</v>
+      </c>
+      <c r="K76">
+        <v>-0.02611951678472828</v>
+      </c>
+      <c r="L76">
+        <v>0.02245464964022368</v>
+      </c>
+      <c r="M76">
+        <v>0.08935389204778954</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.07021926364599057</v>
+        <v>-0.06775498086051152</v>
       </c>
       <c r="C77">
-        <v>0.02044700627971759</v>
+        <v>0.02391348178799201</v>
       </c>
       <c r="D77">
-        <v>0.005389858473994766</v>
+        <v>0.01778109920009129</v>
       </c>
       <c r="E77">
-        <v>-0.1597416549681839</v>
+        <v>-0.04481210909294183</v>
       </c>
       <c r="F77">
-        <v>0.08383775272602602</v>
+        <v>-0.2678697722206898</v>
       </c>
       <c r="G77">
-        <v>0.6757922373792752</v>
+        <v>-0.141330682431962</v>
       </c>
       <c r="H77">
-        <v>-0.1600400836741222</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.352132239198294</v>
+      </c>
+      <c r="I77">
+        <v>0.06650426328471475</v>
+      </c>
+      <c r="J77">
+        <v>-0.2048555167260426</v>
+      </c>
+      <c r="K77">
+        <v>-0.168979179178117</v>
+      </c>
+      <c r="L77">
+        <v>0.6380517307944752</v>
+      </c>
+      <c r="M77">
+        <v>0.004999211074126681</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.1485848857730422</v>
+        <v>-0.162900423633487</v>
       </c>
       <c r="C78">
-        <v>0.08878116452410417</v>
+        <v>0.1301198274607571</v>
       </c>
       <c r="D78">
-        <v>0.02606291297592079</v>
+        <v>-0.1777889273802485</v>
       </c>
       <c r="E78">
-        <v>-0.1941867574769813</v>
+        <v>-0.1090816465836327</v>
       </c>
       <c r="F78">
-        <v>0.00198522076427955</v>
+        <v>-0.1366575131948232</v>
       </c>
       <c r="G78">
-        <v>0.01431008642324007</v>
+        <v>-0.2558016152780593</v>
       </c>
       <c r="H78">
-        <v>-0.08111330976277607</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.3739377788282663</v>
+      </c>
+      <c r="I78">
+        <v>-0.4266458580399961</v>
+      </c>
+      <c r="J78">
+        <v>-0.5378449939371853</v>
+      </c>
+      <c r="K78">
+        <v>-0.2669541277799666</v>
+      </c>
+      <c r="L78">
+        <v>-0.04535874397511581</v>
+      </c>
+      <c r="M78">
+        <v>0.1044073175908427</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.140391435968469</v>
+        <v>-0.1329501783033278</v>
       </c>
       <c r="C79">
-        <v>0.04918138690788473</v>
+        <v>0.07630642745465169</v>
       </c>
       <c r="D79">
-        <v>0.02428399914273456</v>
+        <v>0.005478452831517553</v>
       </c>
       <c r="E79">
-        <v>0.05939917506142953</v>
+        <v>-0.006666390543189349</v>
       </c>
       <c r="F79">
-        <v>-0.1592091511425383</v>
+        <v>-0.001703813169059468</v>
       </c>
       <c r="G79">
-        <v>-0.04687551493445249</v>
+        <v>0.1678995424380151</v>
       </c>
       <c r="H79">
-        <v>0.02828674436713435</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.08115691605498186</v>
+      </c>
+      <c r="I79">
+        <v>-0.02718858863305387</v>
+      </c>
+      <c r="J79">
+        <v>0.07360256972648098</v>
+      </c>
+      <c r="K79">
+        <v>-0.02372213141879284</v>
+      </c>
+      <c r="L79">
+        <v>0.05257224882597389</v>
+      </c>
+      <c r="M79">
+        <v>-0.02081654094189113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.0256106608366493</v>
+        <v>-0.05734310443049986</v>
       </c>
       <c r="C80">
-        <v>0.001387369290996264</v>
+        <v>0.02596412786376135</v>
       </c>
       <c r="D80">
-        <v>0.005978927293772806</v>
+        <v>0.06887073657844232</v>
       </c>
       <c r="E80">
-        <v>0.04329014102146183</v>
+        <v>-0.01078556764161665</v>
       </c>
       <c r="F80">
-        <v>-0.00504352022370166</v>
+        <v>-0.03131600018479293</v>
       </c>
       <c r="G80">
-        <v>0.01651856729602371</v>
+        <v>-0.01915571095984964</v>
       </c>
       <c r="H80">
-        <v>0.05038447855263978</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.009364878685809009</v>
+      </c>
+      <c r="I80">
+        <v>-0.0485245168460116</v>
+      </c>
+      <c r="J80">
+        <v>0.04648446049086393</v>
+      </c>
+      <c r="K80">
+        <v>0.09637040219691344</v>
+      </c>
+      <c r="L80">
+        <v>-0.1542785169813519</v>
+      </c>
+      <c r="M80">
+        <v>0.0006862580134269591</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.108652574400356</v>
+        <v>-0.1200821395111804</v>
       </c>
       <c r="C81">
-        <v>0.0413744613963008</v>
+        <v>0.06315266360666642</v>
       </c>
       <c r="D81">
-        <v>0.02440497978182261</v>
+        <v>0.003392838306466412</v>
       </c>
       <c r="E81">
-        <v>0.06252551923243005</v>
+        <v>-0.004670339878378923</v>
       </c>
       <c r="F81">
-        <v>-0.1160091359484896</v>
+        <v>-0.02458710083378887</v>
       </c>
       <c r="G81">
-        <v>-0.02106844451073014</v>
+        <v>0.1289486925685902</v>
       </c>
       <c r="H81">
-        <v>0.008215000387129802</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.08843669564547606</v>
+      </c>
+      <c r="I81">
+        <v>0.009740116505973857</v>
+      </c>
+      <c r="J81">
+        <v>0.0353922125635676</v>
+      </c>
+      <c r="K81">
+        <v>-0.01347288594566222</v>
+      </c>
+      <c r="L81">
+        <v>0.03379646513316001</v>
+      </c>
+      <c r="M81">
+        <v>-0.104829683901951</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.1128862927456372</v>
+        <v>-0.1191767436229253</v>
       </c>
       <c r="C82">
-        <v>0.02615715497289401</v>
+        <v>0.05249023557658841</v>
       </c>
       <c r="D82">
-        <v>0.06444535072090599</v>
+        <v>0.02785782635761261</v>
       </c>
       <c r="E82">
-        <v>0.0788269463153581</v>
+        <v>-0.00459821838049793</v>
       </c>
       <c r="F82">
-        <v>-0.23500832264346</v>
+        <v>0.01945549562226562</v>
       </c>
       <c r="G82">
-        <v>-0.05346042883150237</v>
+        <v>0.2306759185899493</v>
       </c>
       <c r="H82">
-        <v>0.02788460267693016</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.1400300570807053</v>
+      </c>
+      <c r="I82">
+        <v>0.04061652846235597</v>
+      </c>
+      <c r="J82">
+        <v>0.0404639835863292</v>
+      </c>
+      <c r="K82">
+        <v>0.05702818504131587</v>
+      </c>
+      <c r="L82">
+        <v>0.03749090801625576</v>
+      </c>
+      <c r="M82">
+        <v>-0.04128283249089243</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.06248101008008376</v>
+        <v>-0.07213145415448187</v>
       </c>
       <c r="C83">
-        <v>0.0453617628301775</v>
+        <v>0.06960080204187574</v>
       </c>
       <c r="D83">
-        <v>0.02318805190837711</v>
+        <v>0.02100723486729904</v>
       </c>
       <c r="E83">
-        <v>-0.005928508731496709</v>
+        <v>-0.004867026623016101</v>
       </c>
       <c r="F83">
-        <v>0.05411622632404931</v>
+        <v>-0.0122703012633069</v>
       </c>
       <c r="G83">
-        <v>0.01647721766002936</v>
+        <v>0.03814012004470951</v>
       </c>
       <c r="H83">
-        <v>-0.1005177131621458</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.06862854252619885</v>
+      </c>
+      <c r="I83">
+        <v>0.01762047237412945</v>
+      </c>
+      <c r="J83">
+        <v>-0.01866452361464745</v>
+      </c>
+      <c r="K83">
+        <v>0.1084825447738952</v>
+      </c>
+      <c r="L83">
+        <v>0.00180708833769181</v>
+      </c>
+      <c r="M83">
+        <v>0.04756460261668471</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.05186155266542114</v>
+        <v>-0.05116498580431563</v>
       </c>
       <c r="C84">
-        <v>0.04475737536402884</v>
+        <v>-0.01709369221806343</v>
       </c>
       <c r="D84">
-        <v>-0.06199057974656219</v>
+        <v>0.0002323506995201754</v>
       </c>
       <c r="E84">
-        <v>-0.0006120610112466811</v>
+        <v>0.01669599735711372</v>
       </c>
       <c r="F84">
-        <v>-0.03322075858961469</v>
+        <v>-0.024659123989196</v>
       </c>
       <c r="G84">
-        <v>-0.1454329847425093</v>
+        <v>-0.2177634310356469</v>
       </c>
       <c r="H84">
-        <v>-0.009918302762237855</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.1666688389522662</v>
+      </c>
+      <c r="I84">
+        <v>0.1561496340187443</v>
+      </c>
+      <c r="J84">
+        <v>0.03986602770542513</v>
+      </c>
+      <c r="K84">
+        <v>0.1662388046115635</v>
+      </c>
+      <c r="L84">
+        <v>-0.1219052559154241</v>
+      </c>
+      <c r="M84">
+        <v>0.5155555859457653</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.08903136458731267</v>
+        <v>-0.1089026487127501</v>
       </c>
       <c r="C85">
-        <v>0.04003141818942477</v>
+        <v>0.05043147994138696</v>
       </c>
       <c r="D85">
-        <v>0.05889289043816906</v>
+        <v>0.01422442567850489</v>
       </c>
       <c r="E85">
-        <v>0.03367546326960384</v>
+        <v>-0.03537184806769542</v>
       </c>
       <c r="F85">
-        <v>-0.1878024895326529</v>
+        <v>-0.005062739234204274</v>
       </c>
       <c r="G85">
-        <v>-0.003977571602663656</v>
+        <v>0.1721187743334571</v>
       </c>
       <c r="H85">
-        <v>0.06495197949231442</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.08091509942039402</v>
+      </c>
+      <c r="I85">
+        <v>-0.0234535513735536</v>
+      </c>
+      <c r="J85">
+        <v>0.07279509136842385</v>
+      </c>
+      <c r="K85">
+        <v>-0.04635631687890224</v>
+      </c>
+      <c r="L85">
+        <v>0.05402244243544493</v>
+      </c>
+      <c r="M85">
+        <v>-0.03853366114692752</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.04864268542495487</v>
+        <v>-0.07290457337880085</v>
       </c>
       <c r="C86">
-        <v>0.04315862270628205</v>
+        <v>0.02491021133765468</v>
       </c>
       <c r="D86">
-        <v>0.02616163840882657</v>
+        <v>-0.02149514502422642</v>
       </c>
       <c r="E86">
-        <v>-0.05347605263826713</v>
+        <v>-0.1196606059236391</v>
       </c>
       <c r="F86">
-        <v>0.007990821457064187</v>
+        <v>-0.05298400535899904</v>
       </c>
       <c r="G86">
-        <v>0.0843702495834473</v>
+        <v>-0.461889796945378</v>
       </c>
       <c r="H86">
-        <v>0.08057884217499812</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.4729505065845124</v>
+      </c>
+      <c r="I86">
+        <v>0.2394809992740451</v>
+      </c>
+      <c r="J86">
+        <v>0.4659783258858887</v>
+      </c>
+      <c r="K86">
+        <v>-0.1773977513330517</v>
+      </c>
+      <c r="L86">
+        <v>0.1263933754572549</v>
+      </c>
+      <c r="M86">
+        <v>0.01219423709465705</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.09339826472882981</v>
+        <v>-0.1144057846647124</v>
       </c>
       <c r="C87">
-        <v>0.05268920783059626</v>
+        <v>0.06887327847962768</v>
       </c>
       <c r="D87">
-        <v>-0.01124541601948418</v>
+        <v>-0.03012024445622581</v>
       </c>
       <c r="E87">
-        <v>-0.07483959853721352</v>
+        <v>-0.02416694275190396</v>
       </c>
       <c r="F87">
-        <v>0.002334366079041691</v>
+        <v>-0.1159184684036821</v>
       </c>
       <c r="G87">
-        <v>0.1330286760445694</v>
+        <v>-0.07715457507036963</v>
       </c>
       <c r="H87">
-        <v>-0.07733571094962896</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.1093838896849914</v>
+      </c>
+      <c r="I87">
+        <v>0.06914250274402427</v>
+      </c>
+      <c r="J87">
+        <v>-0.02190166085762806</v>
+      </c>
+      <c r="K87">
+        <v>0.09419510219932725</v>
+      </c>
+      <c r="L87">
+        <v>0.1585889454221446</v>
+      </c>
+      <c r="M87">
+        <v>-0.02504897331957677</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.05650533995092595</v>
+        <v>-0.0577899996620069</v>
       </c>
       <c r="C88">
-        <v>0.04330643039019483</v>
+        <v>0.05331704465082512</v>
       </c>
       <c r="D88">
-        <v>0.02559251171208058</v>
+        <v>0.02946555489664418</v>
       </c>
       <c r="E88">
-        <v>-0.01110139555137905</v>
+        <v>-0.004799228188810368</v>
       </c>
       <c r="F88">
-        <v>0.008740025153355221</v>
+        <v>-0.03789148437748275</v>
       </c>
       <c r="G88">
-        <v>0.02926490901637366</v>
+        <v>0.02922202609189833</v>
       </c>
       <c r="H88">
-        <v>-0.02871940288330748</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.01540811255338177</v>
+      </c>
+      <c r="I88">
+        <v>0.02339830160399446</v>
+      </c>
+      <c r="J88">
+        <v>0.008649382824413212</v>
+      </c>
+      <c r="K88">
+        <v>0.02155640250169685</v>
+      </c>
+      <c r="L88">
+        <v>-0.0586625244553803</v>
+      </c>
+      <c r="M88">
+        <v>-0.05788958306928227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.1570337662535472</v>
+        <v>-0.2150005136303782</v>
       </c>
       <c r="C89">
-        <v>-0.3268113099901858</v>
+        <v>-0.3562215028324697</v>
       </c>
       <c r="D89">
-        <v>0.07376394439871363</v>
+        <v>-0.04170026718542686</v>
       </c>
       <c r="E89">
-        <v>-0.08982368083857353</v>
+        <v>-0.08117389810721069</v>
       </c>
       <c r="F89">
-        <v>0.04987511828979685</v>
+        <v>-0.01418438169571022</v>
       </c>
       <c r="G89">
-        <v>0.02764954480840957</v>
+        <v>-0.01452003235182431</v>
       </c>
       <c r="H89">
-        <v>0.002642453195200792</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.003982894022668114</v>
+      </c>
+      <c r="I89">
+        <v>0.03942851848609901</v>
+      </c>
+      <c r="J89">
+        <v>-0.05612294324373841</v>
+      </c>
+      <c r="K89">
+        <v>0.01393116082559824</v>
+      </c>
+      <c r="L89">
+        <v>-0.04959607891205693</v>
+      </c>
+      <c r="M89">
+        <v>-0.07088705053495672</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.1230452084280825</v>
+        <v>-0.1523537530958446</v>
       </c>
       <c r="C90">
-        <v>-0.2818139784631313</v>
+        <v>-0.2695034424144044</v>
       </c>
       <c r="D90">
-        <v>0.005398619123440558</v>
+        <v>0.008162898014672368</v>
       </c>
       <c r="E90">
-        <v>-0.06154337319094173</v>
+        <v>-0.01501273165617726</v>
       </c>
       <c r="F90">
-        <v>0.03452908807138559</v>
+        <v>-0.0359684191230782</v>
       </c>
       <c r="G90">
-        <v>0.09711291123797655</v>
+        <v>-0.01715670097639824</v>
       </c>
       <c r="H90">
-        <v>-0.03597987229464367</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.05437760660051789</v>
+      </c>
+      <c r="I90">
+        <v>0.0340189381344589</v>
+      </c>
+      <c r="J90">
+        <v>0.0007633359807779194</v>
+      </c>
+      <c r="K90">
+        <v>-0.02077285457240076</v>
+      </c>
+      <c r="L90">
+        <v>-0.02224509475733095</v>
+      </c>
+      <c r="M90">
+        <v>0.05696604792743917</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.08121079538405586</v>
+        <v>-0.07703885707632126</v>
       </c>
       <c r="C91">
-        <v>0.01999507280289559</v>
+        <v>0.05229675870433564</v>
       </c>
       <c r="D91">
-        <v>0.01198874606831294</v>
+        <v>-0.004120449170171901</v>
       </c>
       <c r="E91">
-        <v>-0.0089201609601489</v>
+        <v>-0.01086017304224387</v>
       </c>
       <c r="F91">
-        <v>-0.09727372369566437</v>
+        <v>0.01168880366362984</v>
       </c>
       <c r="G91">
-        <v>-0.06152193588830421</v>
+        <v>0.08899004174140857</v>
       </c>
       <c r="H91">
-        <v>0.03319782277355732</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.0668012796646472</v>
+      </c>
+      <c r="I91">
+        <v>-0.005247857690685064</v>
+      </c>
+      <c r="J91">
+        <v>-0.0001547488251438589</v>
+      </c>
+      <c r="K91">
+        <v>-0.02118262694468982</v>
+      </c>
+      <c r="L91">
+        <v>-0.001949727875230417</v>
+      </c>
+      <c r="M91">
+        <v>0.01119105119308458</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.1350960109764915</v>
+        <v>-0.1716751203863097</v>
       </c>
       <c r="C92">
-        <v>-0.3089523069119839</v>
+        <v>-0.3037830189980515</v>
       </c>
       <c r="D92">
-        <v>0.05141186544476774</v>
+        <v>-0.03304781595128438</v>
       </c>
       <c r="E92">
-        <v>-0.05062795442066924</v>
+        <v>-0.04812983931429835</v>
       </c>
       <c r="F92">
-        <v>0.0423457208573268</v>
+        <v>-0.03921692578246464</v>
       </c>
       <c r="G92">
-        <v>-0.08839018755795365</v>
+        <v>0.02509358325859487</v>
       </c>
       <c r="H92">
-        <v>0.0169237114134996</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.01941350559230838</v>
+      </c>
+      <c r="I92">
+        <v>0.007073825398482314</v>
+      </c>
+      <c r="J92">
+        <v>-0.0227105521875712</v>
+      </c>
+      <c r="K92">
+        <v>0.01435712283149792</v>
+      </c>
+      <c r="L92">
+        <v>-0.06046434519882479</v>
+      </c>
+      <c r="M92">
+        <v>-0.07650225353716779</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.1338710775985414</v>
+        <v>-0.1659963574654925</v>
       </c>
       <c r="C93">
-        <v>-0.2597739050016141</v>
+        <v>-0.2856740651677514</v>
       </c>
       <c r="D93">
-        <v>0.03264087562826962</v>
+        <v>0.0301239771138067</v>
       </c>
       <c r="E93">
-        <v>-0.02198456927372472</v>
+        <v>-0.007153814189547089</v>
       </c>
       <c r="F93">
-        <v>0.03159453259977833</v>
+        <v>-0.01447867347359376</v>
       </c>
       <c r="G93">
-        <v>0.01840139977140794</v>
+        <v>-0.01679057719634132</v>
       </c>
       <c r="H93">
-        <v>-0.01252321656095032</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.01089854477442347</v>
+      </c>
+      <c r="I93">
+        <v>0.01379523468655027</v>
+      </c>
+      <c r="J93">
+        <v>0.03465526799584923</v>
+      </c>
+      <c r="K93">
+        <v>0.02869439779410066</v>
+      </c>
+      <c r="L93">
+        <v>-0.01277730925793334</v>
+      </c>
+      <c r="M93">
+        <v>0.03170562015818136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.09108726212073977</v>
+        <v>-0.1097990365471216</v>
       </c>
       <c r="C94">
-        <v>0.05379755807653028</v>
+        <v>0.07375375680011892</v>
       </c>
       <c r="D94">
-        <v>0.01007098314052398</v>
+        <v>-0.01644339580398348</v>
       </c>
       <c r="E94">
-        <v>0.00301891519285747</v>
+        <v>-0.0189072018326192</v>
       </c>
       <c r="F94">
-        <v>-0.1584150497765781</v>
+        <v>0.02926540227711616</v>
       </c>
       <c r="G94">
-        <v>-0.08656937788303425</v>
+        <v>0.1336438138600385</v>
       </c>
       <c r="H94">
-        <v>0.06949465860586301</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.06071716347823471</v>
+      </c>
+      <c r="I94">
+        <v>-0.0346516107933784</v>
+      </c>
+      <c r="J94">
+        <v>0.01787423909899487</v>
+      </c>
+      <c r="K94">
+        <v>-0.03135950923650454</v>
+      </c>
+      <c r="L94">
+        <v>-0.03125804552308049</v>
+      </c>
+      <c r="M94">
+        <v>-0.005687563661375471</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.0969862827663928</v>
+        <v>-0.1213264903099626</v>
       </c>
       <c r="C95">
-        <v>0.06991145955998987</v>
+        <v>0.07828063393039761</v>
       </c>
       <c r="D95">
-        <v>0.06410147891701497</v>
+        <v>-0.01876135002105358</v>
       </c>
       <c r="E95">
-        <v>-0.04693878839275824</v>
+        <v>-0.06076784800214808</v>
       </c>
       <c r="F95">
-        <v>0.06134772909184978</v>
+        <v>-0.07949681457355548</v>
       </c>
       <c r="G95">
-        <v>-0.005118323171692646</v>
+        <v>-0.223054569194802</v>
       </c>
       <c r="H95">
-        <v>-0.01379469273976552</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.05493431827684954</v>
+      </c>
+      <c r="I95">
+        <v>0.0549617888844451</v>
+      </c>
+      <c r="J95">
+        <v>0.1164335339551589</v>
+      </c>
+      <c r="K95">
+        <v>0.06602614810397102</v>
+      </c>
+      <c r="L95">
+        <v>-0.1224191875668464</v>
+      </c>
+      <c r="M95">
+        <v>-0.4990207096288624</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-9.565300659320772e-05</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.0001230104088568605</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.0007989172016879657</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.001904211451664191</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.0005013429422463037</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.0009679073425748159</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>-0.0008804580232764657</v>
+      </c>
+      <c r="I96">
+        <v>-0.0008049624132136981</v>
+      </c>
+      <c r="J96">
+        <v>0.003920322385904114</v>
+      </c>
+      <c r="K96">
+        <v>-0.003491083472210327</v>
+      </c>
+      <c r="L96">
+        <v>0.003692229826272347</v>
+      </c>
+      <c r="M96">
+        <v>0.004140511169466517</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.2449844541716384</v>
+        <v>-0.1585116416670293</v>
       </c>
       <c r="C97">
-        <v>-0.02050630055237558</v>
+        <v>0.0003093897142703881</v>
       </c>
       <c r="D97">
-        <v>-0.8811018479233964</v>
+        <v>-0.1004268631718707</v>
       </c>
       <c r="E97">
-        <v>0.157853729147723</v>
+        <v>0.9292224791265872</v>
       </c>
       <c r="F97">
-        <v>0.1157174491664355</v>
+        <v>-0.03829656842306545</v>
       </c>
       <c r="G97">
-        <v>0.0244064416942373</v>
+        <v>-0.1153858582971004</v>
       </c>
       <c r="H97">
-        <v>-0.01501865595357072</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.0568888813657506</v>
+      </c>
+      <c r="I97">
+        <v>0.06452497781114837</v>
+      </c>
+      <c r="J97">
+        <v>-0.02247543936444069</v>
+      </c>
+      <c r="K97">
+        <v>-0.03826990001509397</v>
+      </c>
+      <c r="L97">
+        <v>0.003305082421714461</v>
+      </c>
+      <c r="M97">
+        <v>-0.01868611690652142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.2939951748424057</v>
+        <v>-0.2637838184094982</v>
       </c>
       <c r="C98">
-        <v>0.119355365268851</v>
+        <v>0.1209988447828872</v>
       </c>
       <c r="D98">
-        <v>0.1618682392686673</v>
+        <v>-0.005811667835129464</v>
       </c>
       <c r="E98">
-        <v>0.2449886264536931</v>
+        <v>-9.425517735259028e-05</v>
       </c>
       <c r="F98">
-        <v>0.4679666944815279</v>
+        <v>0.4512360536188826</v>
       </c>
       <c r="G98">
-        <v>-0.3922521763855193</v>
+        <v>-0.1922146215924515</v>
       </c>
       <c r="H98">
-        <v>-0.3438008275430102</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.0456218726662565</v>
+      </c>
+      <c r="I98">
+        <v>-0.07463495479312283</v>
+      </c>
+      <c r="J98">
+        <v>-0.2517759078984086</v>
+      </c>
+      <c r="K98">
+        <v>0.6014879142251677</v>
+      </c>
+      <c r="L98">
+        <v>0.1979395990469484</v>
+      </c>
+      <c r="M98">
+        <v>-0.04210527193902583</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.0638509026491243</v>
+        <v>-0.06768306148033237</v>
       </c>
       <c r="C99">
-        <v>0.048731980372691</v>
+        <v>0.05638366046570155</v>
       </c>
       <c r="D99">
-        <v>0.03351019504591487</v>
+        <v>-0.007529360403103133</v>
       </c>
       <c r="E99">
-        <v>0.003608781155518109</v>
+        <v>-0.03414176535188468</v>
       </c>
       <c r="F99">
-        <v>0.01755991059283386</v>
+        <v>0.01478804304443299</v>
       </c>
       <c r="G99">
-        <v>-0.009808219636024032</v>
+        <v>0.01771362370032613</v>
       </c>
       <c r="H99">
-        <v>-0.09008144290006141</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.01203244587155924</v>
+      </c>
+      <c r="I99">
+        <v>0.01888043126089658</v>
+      </c>
+      <c r="J99">
+        <v>-0.04295700459947249</v>
+      </c>
+      <c r="K99">
+        <v>-0.02650701304635503</v>
+      </c>
+      <c r="L99">
+        <v>0.04706806793963251</v>
+      </c>
+      <c r="M99">
+        <v>-0.09346913697650472</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3303,36 +4803,66 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.05271171545486773</v>
+        <v>-0.04219183212114846</v>
       </c>
       <c r="C101">
-        <v>0.01850089090858475</v>
+        <v>0.02989189885382221</v>
       </c>
       <c r="D101">
-        <v>0.01233938520210176</v>
+        <v>0.003598072583992977</v>
       </c>
       <c r="E101">
-        <v>-0.02534572513531115</v>
+        <v>-0.02027531595861427</v>
       </c>
       <c r="F101">
-        <v>-0.005707197797036179</v>
+        <v>-0.05871749737451951</v>
       </c>
       <c r="G101">
-        <v>-0.01243503656951832</v>
+        <v>0.0239670224923633</v>
       </c>
       <c r="H101">
-        <v>0.005783717508915404</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.01828744209042591</v>
+      </c>
+      <c r="I101">
+        <v>-0.0132895265068206</v>
+      </c>
+      <c r="J101">
+        <v>0.04095897585375455</v>
+      </c>
+      <c r="K101">
+        <v>0.05842065188272245</v>
+      </c>
+      <c r="L101">
+        <v>-0.01784279449095005</v>
+      </c>
+      <c r="M101">
+        <v>0.006719511671292278</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
